--- a/DOCS/importdata/importpelabuhan (1).xlsx
+++ b/DOCS/importdata/importpelabuhan (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\userlaptop\Documents\projects\pernika\AIS-Local\DOCS\importdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941931B-775A-47C7-BC38-348B8D03EEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A802146-567B-40ED-A95B-570B892709E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81F07299-0AD5-449F-8A72-A3BE4C7ADA24}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="154">
   <si>
     <t>name</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>114.558333</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>-2.916639</t>
@@ -855,744 +852,600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD8FC7-1E3A-474B-B913-0713848A5293}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>48</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>50</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>58</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>59</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>60</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
